--- a/ONCHO/Breeding Site Survey/Malawi/mw_oncho_bsa_1_vector_community_question_202211.xlsx
+++ b/ONCHO/Breeding Site Survey/Malawi/mw_oncho_bsa_1_vector_community_question_202211.xlsx
@@ -11,13 +11,17 @@
     <sheet name="choices" sheetId="2" r:id="rId2"/>
     <sheet name="settings" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet1!$A$1:$D$58</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="201">
   <si>
     <t>type</t>
   </si>
@@ -376,16 +380,13 @@
     <t>Evening</t>
   </si>
   <si>
-    <t>Bia East</t>
-  </si>
-  <si>
-    <t>Dorma West</t>
-  </si>
-  <si>
-    <t>Dormaa</t>
-  </si>
-  <si>
-    <t>Jaman South</t>
+    <t>Mulanje</t>
+  </si>
+  <si>
+    <t>Phalombe</t>
+  </si>
+  <si>
+    <t>Thyolo</t>
   </si>
   <si>
     <t>Other</t>
@@ -394,73 +395,205 @@
     <t>community</t>
   </si>
   <si>
-    <t>Akwasiatuakurom (Kasapenso)</t>
-  </si>
-  <si>
-    <t>Amoakokrom_1</t>
-  </si>
-  <si>
-    <t>Anwona2</t>
-  </si>
-  <si>
-    <t>Baanafo</t>
-  </si>
-  <si>
-    <t>Baano No.1</t>
-  </si>
-  <si>
-    <t>Bidienkwanta</t>
-  </si>
-  <si>
-    <t>Dormaa Agogo</t>
-  </si>
-  <si>
-    <t>Fosukrom</t>
-  </si>
-  <si>
-    <t>Gyapekurom</t>
-  </si>
-  <si>
-    <t>Kadwo Amakurom</t>
-  </si>
-  <si>
-    <t>Kokorasua</t>
-  </si>
-  <si>
-    <t>Komfuokurom</t>
-  </si>
-  <si>
-    <t>Korase</t>
-  </si>
-  <si>
-    <t>Kwabenkrakrom</t>
-  </si>
-  <si>
-    <t>Kwanto Yaayaakrom</t>
-  </si>
-  <si>
-    <t>Nkwantaso</t>
-  </si>
-  <si>
-    <t>Owunta</t>
-  </si>
-  <si>
-    <t>Sabreni</t>
-  </si>
-  <si>
-    <t>Segera</t>
-  </si>
-  <si>
-    <t>Tafro</t>
-  </si>
-  <si>
-    <t>Tainano No.2</t>
-  </si>
-  <si>
-    <t>Taino No.1</t>
-  </si>
-  <si>
-    <t>Wamho No.1</t>
+    <t>Changoima (Chimalizeni)</t>
+  </si>
+  <si>
+    <t>Duswa ( Mimosa)</t>
+  </si>
+  <si>
+    <t>Kadewere</t>
+  </si>
+  <si>
+    <t>Likhubula</t>
+  </si>
+  <si>
+    <t>Lomo</t>
+  </si>
+  <si>
+    <t>Luangwa</t>
+  </si>
+  <si>
+    <t>Maruwasa</t>
+  </si>
+  <si>
+    <t>Mathithi</t>
+  </si>
+  <si>
+    <t>Mendulo</t>
+  </si>
+  <si>
+    <t>Mimosa</t>
+  </si>
+  <si>
+    <t>Mitombozi</t>
+  </si>
+  <si>
+    <t>Namaja (Mulanje)</t>
+  </si>
+  <si>
+    <t>Ndala</t>
+  </si>
+  <si>
+    <t>Padwale</t>
+  </si>
+  <si>
+    <t>Samson</t>
+  </si>
+  <si>
+    <t>Chaweza</t>
+  </si>
+  <si>
+    <t>Kalinde</t>
+  </si>
+  <si>
+    <t>Mlelemba</t>
+  </si>
+  <si>
+    <t>Mpasa</t>
+  </si>
+  <si>
+    <t>Mpinde</t>
+  </si>
+  <si>
+    <t>Namaja (Phalombe)</t>
+  </si>
+  <si>
+    <t>Nkhulambe</t>
+  </si>
+  <si>
+    <t>Nkhulambe HF</t>
+  </si>
+  <si>
+    <t>Nkulambe 2</t>
+  </si>
+  <si>
+    <t>Saidi</t>
+  </si>
+  <si>
+    <t>Bvumbe (Chiridza)</t>
+  </si>
+  <si>
+    <t>Chafa (Masambanjati)</t>
+  </si>
+  <si>
+    <t>Chidzinja</t>
+  </si>
+  <si>
+    <t>Chimalilo (Muonekera)</t>
+  </si>
+  <si>
+    <t>Chiridza</t>
+  </si>
+  <si>
+    <t>Chisinkha</t>
+  </si>
+  <si>
+    <t>Chisinkha 2</t>
+  </si>
+  <si>
+    <t>Kavugne (Lujenda)</t>
+  </si>
+  <si>
+    <t>Khumbanyi</t>
+  </si>
+  <si>
+    <t>Kozombe (Thekerani)</t>
+  </si>
+  <si>
+    <t>Lingoni</t>
+  </si>
+  <si>
+    <t>Lujemda</t>
+  </si>
+  <si>
+    <t>Magombo</t>
+  </si>
+  <si>
+    <t>Makapwa</t>
+  </si>
+  <si>
+    <t>Makarumba</t>
+  </si>
+  <si>
+    <t>Makombe</t>
+  </si>
+  <si>
+    <t>Makope</t>
+  </si>
+  <si>
+    <t>Malamulo</t>
+  </si>
+  <si>
+    <t>Malirankhandwe</t>
+  </si>
+  <si>
+    <t>Masambanj</t>
+  </si>
+  <si>
+    <t>Mathotho</t>
+  </si>
+  <si>
+    <t>Muonekera</t>
+  </si>
+  <si>
+    <t>M’bawa</t>
+  </si>
+  <si>
+    <t>Nachuma</t>
+  </si>
+  <si>
+    <t>Namabinzi</t>
+  </si>
+  <si>
+    <t>Nanseta</t>
+  </si>
+  <si>
+    <t>Napweto</t>
+  </si>
+  <si>
+    <t>Nkona</t>
+  </si>
+  <si>
+    <t>Singala (Makapwa)</t>
+  </si>
+  <si>
+    <t>Singano</t>
+  </si>
+  <si>
+    <t>Thekerani</t>
+  </si>
+  <si>
+    <t>Waruma (Makarumba)</t>
+  </si>
+  <si>
+    <t>river</t>
+  </si>
+  <si>
+    <t>Likhubula River</t>
+  </si>
+  <si>
+    <t>Muloza River</t>
+  </si>
+  <si>
+    <t>Nakhoru</t>
+  </si>
+  <si>
+    <t>Ruo River</t>
+  </si>
+  <si>
+    <t>Thuchila River</t>
+  </si>
+  <si>
+    <t>Phalombe River</t>
+  </si>
+  <si>
+    <t>Maperera River</t>
+  </si>
+  <si>
+    <t>Nachipere River</t>
+  </si>
+  <si>
+    <t>Nswazi River</t>
   </si>
   <si>
     <t>form_title</t>
@@ -475,31 +608,22 @@
     <t>allow_choice_duplicates</t>
   </si>
   <si>
-    <t>(2022 October) - 1. vector community questionnaire V3</t>
-  </si>
-  <si>
-    <t>gn_oncho_bsa_1_vector_community_question_202210_v3</t>
+    <t>(2022 November) - 1. vector community questionnaire</t>
+  </si>
+  <si>
+    <t>mw_oncho_bsa_1_vector_community_question_202211</t>
   </si>
   <si>
     <t>English</t>
   </si>
   <si>
-    <t>Region</t>
-  </si>
-  <si>
     <t>District</t>
   </si>
   <si>
-    <t>Community</t>
-  </si>
-  <si>
-    <t>Bono</t>
-  </si>
-  <si>
-    <t>Western North</t>
-  </si>
-  <si>
-    <t>Others</t>
+    <t>Communities</t>
+  </si>
+  <si>
+    <t>River</t>
   </si>
 </sst>
 </file>
@@ -507,17 +631,32 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -544,14 +683,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -567,18 +698,39 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -590,51 +742,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -643,35 +750,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -688,10 +767,70 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -710,7 +849,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -722,13 +987,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -740,97 +1017,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -842,55 +1029,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -901,6 +1040,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -932,17 +1086,70 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -962,24 +1169,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -994,264 +1183,216 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1612,571 +1753,571 @@
     <col min="12" max="12" width="28.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" ht="18" spans="1:13">
-      <c r="A1" s="16" t="s">
+    <row r="1" s="5" customFormat="1" ht="18" spans="1:13">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="M1" s="28" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" ht="30" spans="1:13">
-      <c r="A2" s="18" t="s">
+    <row r="2" s="5" customFormat="1" ht="30" spans="1:13">
+      <c r="A2" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="19"/>
-      <c r="F2" s="24" t="s">
+      <c r="E2" s="21"/>
+      <c r="F2" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19" t="s">
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="19"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-    </row>
-    <row r="3" s="3" customFormat="1" ht="15.75" spans="1:13">
-      <c r="A3" s="18" t="s">
+      <c r="K2" s="21"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+    </row>
+    <row r="3" s="5" customFormat="1" ht="15.75" spans="1:13">
+      <c r="A3" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19" t="s">
+      <c r="E3" s="21"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="19"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-    </row>
-    <row r="4" s="3" customFormat="1" spans="1:13">
-      <c r="A4" s="18" t="s">
+      <c r="K3" s="21"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+    </row>
+    <row r="4" s="5" customFormat="1" spans="1:13">
+      <c r="A4" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="19" t="s">
+      <c r="D4" s="22"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19" t="s">
+      <c r="I4" s="21"/>
+      <c r="J4" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="19"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-    </row>
-    <row r="5" s="3" customFormat="1" spans="1:13">
-      <c r="A5" s="18" t="s">
+      <c r="K4" s="21"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+    </row>
+    <row r="5" s="5" customFormat="1" spans="1:13">
+      <c r="A5" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="19" t="s">
+      <c r="D5" s="22"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19" t="s">
+      <c r="I5" s="21"/>
+      <c r="J5" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="19"/>
-      <c r="L5" s="24" t="s">
+      <c r="K5" s="21"/>
+      <c r="L5" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="M5" s="18"/>
-    </row>
-    <row r="6" s="3" customFormat="1" spans="1:13">
-      <c r="A6" s="18" t="s">
+      <c r="M5" s="20"/>
+    </row>
+    <row r="6" s="5" customFormat="1" spans="1:13">
+      <c r="A6" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="19" t="s">
+      <c r="D6" s="22"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19" t="s">
+      <c r="I6" s="21"/>
+      <c r="J6" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="K6" s="19"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="18"/>
-    </row>
-    <row r="7" s="3" customFormat="1" ht="30" spans="1:13">
-      <c r="A7" s="18" t="s">
+      <c r="K6" s="21"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="20"/>
+    </row>
+    <row r="7" s="5" customFormat="1" ht="30" spans="1:13">
+      <c r="A7" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19" t="s">
+      <c r="D7" s="22"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="K7" s="19"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-    </row>
-    <row r="8" s="3" customFormat="1" ht="15.75" spans="1:13">
-      <c r="A8" s="18" t="s">
+      <c r="K7" s="21"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+    </row>
+    <row r="8" s="5" customFormat="1" ht="15.75" spans="1:13">
+      <c r="A8" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="18" t="s">
+      <c r="D8" s="22"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19" t="s">
+      <c r="I8" s="21"/>
+      <c r="J8" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="19"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-    </row>
-    <row r="9" s="3" customFormat="1" ht="15.75" spans="1:13">
-      <c r="A9" s="18" t="s">
+      <c r="K8" s="21"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+    </row>
+    <row r="9" s="5" customFormat="1" ht="15.75" spans="1:13">
+      <c r="A9" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24" t="s">
+      <c r="D9" s="22"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H9" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19" t="s">
+      <c r="I9" s="21"/>
+      <c r="J9" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="K9" s="19"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="18"/>
-    </row>
-    <row r="10" s="15" customFormat="1" ht="15.75" customHeight="1" spans="1:13">
-      <c r="A10" s="18" t="s">
+      <c r="K9" s="21"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="20"/>
+    </row>
+    <row r="10" s="17" customFormat="1" ht="15.75" customHeight="1" spans="1:13">
+      <c r="A10" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="18" t="s">
+      <c r="D10" s="22"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19" t="s">
+      <c r="I10" s="21"/>
+      <c r="J10" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="24"/>
-    </row>
-    <row r="11" s="3" customFormat="1" ht="30" spans="1:13">
-      <c r="A11" s="18" t="s">
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="26"/>
+    </row>
+    <row r="11" s="5" customFormat="1" ht="30" spans="1:13">
+      <c r="A11" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18" t="s">
+      <c r="D11" s="24"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="25" t="s">
+      <c r="G11" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H11" s="18" t="s">
+      <c r="H11" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="I11" s="18"/>
-      <c r="J11" s="19" t="s">
+      <c r="I11" s="20"/>
+      <c r="J11" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-    </row>
-    <row r="12" s="3" customFormat="1" ht="28.5" spans="1:13">
-      <c r="A12" s="18" t="s">
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+    </row>
+    <row r="12" s="5" customFormat="1" ht="28.5" spans="1:13">
+      <c r="A12" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="18" t="s">
+      <c r="D12" s="24"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="I12" s="18"/>
-      <c r="J12" s="19" t="s">
+      <c r="I12" s="20"/>
+      <c r="J12" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-    </row>
-    <row r="13" s="3" customFormat="1" ht="28.5" spans="1:13">
-      <c r="A13" s="18" t="s">
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+    </row>
+    <row r="13" s="5" customFormat="1" ht="28.5" spans="1:13">
+      <c r="A13" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="18" t="s">
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="I13" s="18"/>
-      <c r="J13" s="19" t="s">
+      <c r="I13" s="20"/>
+      <c r="J13" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-    </row>
-    <row r="14" s="3" customFormat="1" ht="42.75" spans="1:13">
-      <c r="A14" s="18" t="s">
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+    </row>
+    <row r="14" s="5" customFormat="1" ht="42.75" spans="1:13">
+      <c r="A14" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="18" t="s">
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="I14" s="18"/>
-      <c r="J14" s="19" t="s">
+      <c r="I14" s="20"/>
+      <c r="J14" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-    </row>
-    <row r="15" s="3" customFormat="1" ht="15.75" spans="1:13">
-      <c r="A15" s="18" t="s">
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+    </row>
+    <row r="15" s="5" customFormat="1" ht="15.75" spans="1:13">
+      <c r="A15" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="18" t="s">
+      <c r="D15" s="24"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="I15" s="18"/>
-      <c r="J15" s="19" t="s">
+      <c r="I15" s="20"/>
+      <c r="J15" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-    </row>
-    <row r="16" s="3" customFormat="1" ht="28.5" spans="1:13">
-      <c r="A16" s="18" t="s">
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+    </row>
+    <row r="16" s="5" customFormat="1" ht="28.5" spans="1:13">
+      <c r="A16" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="18" t="s">
+      <c r="D16" s="24"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="I16" s="18"/>
-      <c r="J16" s="19" t="s">
+      <c r="I16" s="20"/>
+      <c r="J16" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-    </row>
-    <row r="17" s="3" customFormat="1" ht="28.5" spans="1:13">
-      <c r="A17" s="18" t="s">
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+    </row>
+    <row r="17" s="5" customFormat="1" ht="28.5" spans="1:13">
+      <c r="A17" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="21" t="s">
+      <c r="D17" s="24"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="I17" s="18"/>
-      <c r="J17" s="19" t="s">
+      <c r="I17" s="20"/>
+      <c r="J17" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-    </row>
-    <row r="18" s="3" customFormat="1" ht="30" spans="1:13">
-      <c r="A18" s="18" t="s">
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+    </row>
+    <row r="18" s="5" customFormat="1" ht="30" spans="1:13">
+      <c r="A18" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="21" t="s">
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="I18" s="18"/>
-      <c r="J18" s="19" t="s">
+      <c r="I18" s="20"/>
+      <c r="J18" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-    </row>
-    <row r="19" s="3" customFormat="1" spans="1:13">
-      <c r="A19" s="18" t="s">
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+    </row>
+    <row r="19" s="5" customFormat="1" spans="1:13">
+      <c r="A19" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-    </row>
-    <row r="20" s="3" customFormat="1" ht="28.5" spans="1:13">
-      <c r="A20" s="18" t="s">
+      <c r="D19" s="23"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+    </row>
+    <row r="20" s="5" customFormat="1" ht="28.5" spans="1:13">
+      <c r="A20" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="D20" s="22"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="18" t="s">
+      <c r="D20" s="24"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="I20" s="18"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-    </row>
-    <row r="21" s="3" customFormat="1" spans="1:13">
-      <c r="A21" s="18" t="s">
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+    </row>
+    <row r="21" s="5" customFormat="1" spans="1:13">
+      <c r="A21" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
-    </row>
-    <row r="22" s="3" customFormat="1" spans="1:13">
-      <c r="A22" s="18" t="s">
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+    </row>
+    <row r="22" s="5" customFormat="1" spans="1:13">
+      <c r="A22" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2188,330 +2329,330 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="$A9:$XFD20"/>
+      <selection pane="bottomLeft" activeCell="A95" sqref="A95:A109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="16.3851851851852" customWidth="1"/>
     <col min="2" max="2" width="39.6074074074074" customWidth="1"/>
-    <col min="3" max="3" width="23.1111111111111" style="4" customWidth="1"/>
+    <col min="3" max="3" width="23.1111111111111" style="6" customWidth="1"/>
     <col min="4" max="4" width="12.3851851851852" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="E1" s="1"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="12"/>
+      <c r="D2" s="14"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="12"/>
+      <c r="D3" s="14"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="15" t="s">
         <v>92</v>
       </c>
       <c r="B4" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="13" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="15" t="s">
         <v>92</v>
       </c>
       <c r="B5" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="13" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="D6" s="12"/>
+      <c r="D6" s="14"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D7" s="12"/>
+      <c r="D7" s="14"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="11" t="s">
         <v>95</v>
       </c>
       <c r="B8" t="s">
         <v>96</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="13" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="15" t="s">
         <v>97</v>
       </c>
       <c r="B9" t="s">
         <v>98</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="13" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="15" t="s">
         <v>97</v>
       </c>
       <c r="B10" t="s">
         <v>99</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="13" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="15" t="s">
         <v>97</v>
       </c>
       <c r="B11" t="s">
         <v>100</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="13" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="15" t="s">
         <v>97</v>
       </c>
       <c r="B12" t="s">
         <v>101</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="13" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="15" t="s">
         <v>97</v>
       </c>
       <c r="B13" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="13" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="15" t="s">
         <v>97</v>
       </c>
       <c r="B14" t="s">
         <v>103</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="13" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="15" t="s">
         <v>97</v>
       </c>
       <c r="B15" t="s">
         <v>104</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="13" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="15" t="s">
         <v>97</v>
       </c>
       <c r="B16" t="s">
         <v>105</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="13" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="15" t="s">
         <v>97</v>
       </c>
       <c r="B17" t="s">
         <v>106</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="13" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="1:3">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="15" t="s">
         <v>97</v>
       </c>
       <c r="B18" t="s">
         <v>107</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="13" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="1:3">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="15" t="s">
         <v>97</v>
       </c>
       <c r="B19" t="s">
         <v>108</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="13" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="1:3">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="15" t="s">
         <v>97</v>
       </c>
       <c r="B20" t="s">
         <v>109</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="13" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="21" customFormat="1" spans="1:3">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="15" t="s">
         <v>110</v>
       </c>
       <c r="B21" t="s">
         <v>111</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="13" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="1:3">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="15" t="s">
         <v>110</v>
       </c>
       <c r="B22" t="s">
         <v>112</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="13" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="23" customFormat="1" spans="1:3">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="15" t="s">
         <v>110</v>
       </c>
       <c r="B23" t="s">
         <v>113</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="13" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="24" customFormat="1" spans="1:3">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="15" t="s">
         <v>114</v>
       </c>
       <c r="B24" t="s">
         <v>115</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="13" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="25" customFormat="1" spans="1:3">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="15" t="s">
         <v>114</v>
       </c>
       <c r="B25" t="s">
         <v>116</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="13" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="26" customFormat="1" spans="1:3">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="15" t="s">
         <v>114</v>
       </c>
       <c r="B26" t="s">
         <v>117</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="13" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="27" customFormat="1" spans="1:3">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="15" t="s">
         <v>114</v>
       </c>
       <c r="B27" t="s">
         <v>118</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="13" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="1:3">
-      <c r="A28" s="13"/>
-      <c r="C28" s="11"/>
+      <c r="A28" s="15"/>
+      <c r="C28" s="13"/>
     </row>
     <row r="29" customFormat="1" spans="1:3">
       <c r="A29" t="s">
@@ -2520,7 +2661,7 @@
       <c r="B29" t="s">
         <v>119</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="13" t="s">
         <v>119</v>
       </c>
     </row>
@@ -2531,7 +2672,7 @@
       <c r="B30" t="s">
         <v>120</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="13" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2542,7 +2683,7 @@
       <c r="B31" t="s">
         <v>121</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="13" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2553,32 +2694,35 @@
       <c r="B32" t="s">
         <v>122</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="13" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="33" customFormat="1" spans="1:3">
-      <c r="A33" t="s">
-        <v>88</v>
-      </c>
-      <c r="B33" t="s">
-        <v>123</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="34" spans="3:3">
-      <c r="C34" s="11"/>
+    <row r="33" spans="3:3">
+      <c r="C33" s="13"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>123</v>
+      </c>
+      <c r="B34" t="s">
+        <v>124</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="D34" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B35" t="s">
         <v>125</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="13" t="s">
         <v>125</v>
       </c>
       <c r="D35" t="s">
@@ -2587,96 +2731,96 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B36" t="s">
         <v>126</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="13" t="s">
         <v>126</v>
       </c>
       <c r="D36" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B37" t="s">
         <v>127</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="13" t="s">
         <v>127</v>
       </c>
       <c r="D37" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B38" t="s">
         <v>128</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="13" t="s">
         <v>128</v>
       </c>
       <c r="D38" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B39" t="s">
         <v>129</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="13" t="s">
         <v>129</v>
       </c>
       <c r="D39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B40" t="s">
         <v>130</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C40" s="13" t="s">
         <v>130</v>
       </c>
       <c r="D40" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B41" t="s">
         <v>131</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="13" t="s">
         <v>131</v>
       </c>
       <c r="D41" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B42" t="s">
         <v>132</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C42" s="13" t="s">
         <v>132</v>
       </c>
       <c r="D42" t="s">
@@ -2685,26 +2829,26 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B43" t="s">
         <v>133</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C43" s="13" t="s">
         <v>133</v>
       </c>
       <c r="D43" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B44" t="s">
         <v>134</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C44" s="13" t="s">
         <v>134</v>
       </c>
       <c r="D44" t="s">
@@ -2713,68 +2857,68 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B45" t="s">
         <v>135</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C45" s="13" t="s">
         <v>135</v>
       </c>
       <c r="D45" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B46" t="s">
         <v>136</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C46" s="13" t="s">
         <v>136</v>
       </c>
       <c r="D46" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B47" t="s">
         <v>137</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C47" s="16" t="s">
         <v>137</v>
       </c>
       <c r="D47" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B48" t="s">
         <v>138</v>
       </c>
-      <c r="C48" s="14" t="s">
+      <c r="C48" s="6" t="s">
         <v>138</v>
       </c>
       <c r="D48" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B49" t="s">
         <v>139</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="6" t="s">
         <v>139</v>
       </c>
       <c r="D49" t="s">
@@ -2783,12 +2927,12 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B50" t="s">
         <v>140</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="6" t="s">
         <v>140</v>
       </c>
       <c r="D50" t="s">
@@ -2797,139 +2941,139 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B51" t="s">
         <v>141</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="16" t="s">
         <v>141</v>
       </c>
       <c r="D51" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B52" t="s">
         <v>142</v>
       </c>
-      <c r="C52" s="14" t="s">
+      <c r="C52" s="16" t="s">
         <v>142</v>
       </c>
       <c r="D52" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B53" t="s">
         <v>143</v>
       </c>
-      <c r="C53" s="14" t="s">
+      <c r="C53" s="16" t="s">
         <v>143</v>
       </c>
       <c r="D53" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B54" t="s">
         <v>144</v>
       </c>
-      <c r="C54" s="14" t="s">
+      <c r="C54" s="16" t="s">
         <v>144</v>
       </c>
       <c r="D54" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B55" t="s">
         <v>145</v>
       </c>
-      <c r="C55" s="14" t="s">
+      <c r="C55" s="16" t="s">
         <v>145</v>
       </c>
       <c r="D55" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B56" t="s">
         <v>146</v>
       </c>
-      <c r="C56" s="14" t="s">
+      <c r="C56" s="16" t="s">
         <v>146</v>
       </c>
       <c r="D56" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B57" t="s">
         <v>147</v>
       </c>
-      <c r="C57" s="14" t="s">
+      <c r="C57" s="6" t="s">
         <v>147</v>
       </c>
       <c r="D57" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B58" t="s">
-        <v>123</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>123</v>
+        <v>148</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>148</v>
       </c>
       <c r="D58" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B59" t="s">
-        <v>123</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>123</v>
+        <v>149</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>149</v>
       </c>
       <c r="D59" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B60" t="s">
-        <v>123</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>123</v>
+        <v>150</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>150</v>
       </c>
       <c r="D60" t="s">
         <v>121</v>
@@ -2937,16 +3081,674 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B61" t="s">
-        <v>123</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>123</v>
+        <v>151</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>151</v>
       </c>
       <c r="D61" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>123</v>
+      </c>
+      <c r="B62" t="s">
+        <v>152</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D62" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>123</v>
+      </c>
+      <c r="B63" t="s">
+        <v>153</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D63" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>123</v>
+      </c>
+      <c r="B64" t="s">
+        <v>154</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D64" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>123</v>
+      </c>
+      <c r="B65" t="s">
+        <v>155</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D65" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>123</v>
+      </c>
+      <c r="B66" t="s">
+        <v>156</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D66" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>123</v>
+      </c>
+      <c r="B67" t="s">
+        <v>157</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D67" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>123</v>
+      </c>
+      <c r="B68" t="s">
+        <v>158</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D68" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>123</v>
+      </c>
+      <c r="B69" t="s">
+        <v>159</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D69" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>123</v>
+      </c>
+      <c r="B70" t="s">
+        <v>160</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D70" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>123</v>
+      </c>
+      <c r="B71" t="s">
+        <v>161</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D71" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>123</v>
+      </c>
+      <c r="B72" t="s">
+        <v>162</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D72" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>123</v>
+      </c>
+      <c r="B73" t="s">
+        <v>163</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D73" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>123</v>
+      </c>
+      <c r="B74" t="s">
+        <v>164</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D74" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>123</v>
+      </c>
+      <c r="B75" t="s">
+        <v>165</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D75" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>123</v>
+      </c>
+      <c r="B76" t="s">
+        <v>166</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D76" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>123</v>
+      </c>
+      <c r="B77" t="s">
+        <v>167</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D77" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>123</v>
+      </c>
+      <c r="B78" t="s">
+        <v>168</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D78" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>123</v>
+      </c>
+      <c r="B79" t="s">
+        <v>169</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D79" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>123</v>
+      </c>
+      <c r="B80" t="s">
+        <v>170</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D80" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>123</v>
+      </c>
+      <c r="B81" t="s">
+        <v>171</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D81" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>123</v>
+      </c>
+      <c r="B82" t="s">
+        <v>172</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D82" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>123</v>
+      </c>
+      <c r="B83" t="s">
+        <v>173</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D83" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>123</v>
+      </c>
+      <c r="B84" t="s">
+        <v>174</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D84" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>123</v>
+      </c>
+      <c r="B85" t="s">
+        <v>175</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D85" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>123</v>
+      </c>
+      <c r="B86" t="s">
+        <v>176</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="D86" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>123</v>
+      </c>
+      <c r="B87" t="s">
+        <v>177</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D87" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>123</v>
+      </c>
+      <c r="B88" t="s">
+        <v>178</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D88" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>123</v>
+      </c>
+      <c r="B89" t="s">
+        <v>179</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="D89" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>123</v>
+      </c>
+      <c r="B90" t="s">
+        <v>180</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D90" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>123</v>
+      </c>
+      <c r="B91" t="s">
         <v>122</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D91" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>123</v>
+      </c>
+      <c r="B92" t="s">
+        <v>122</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D92" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>123</v>
+      </c>
+      <c r="B93" t="s">
+        <v>122</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D93" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>181</v>
+      </c>
+      <c r="B95" t="s">
+        <v>182</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="D95" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>181</v>
+      </c>
+      <c r="B96" t="s">
+        <v>183</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D96" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>181</v>
+      </c>
+      <c r="B97" t="s">
+        <v>184</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D97" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>181</v>
+      </c>
+      <c r="B98" t="s">
+        <v>185</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D98" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>181</v>
+      </c>
+      <c r="B99" t="s">
+        <v>186</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D99" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>181</v>
+      </c>
+      <c r="B100" t="s">
+        <v>183</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D100" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>181</v>
+      </c>
+      <c r="B101" t="s">
+        <v>187</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="D101" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>181</v>
+      </c>
+      <c r="B102" t="s">
+        <v>185</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D102" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>181</v>
+      </c>
+      <c r="B103" t="s">
+        <v>188</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D103" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>181</v>
+      </c>
+      <c r="B104" t="s">
+        <v>189</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="D104" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>181</v>
+      </c>
+      <c r="B105" t="s">
+        <v>190</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="D105" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>181</v>
+      </c>
+      <c r="B106" t="s">
+        <v>185</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D106" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
+        <v>181</v>
+      </c>
+      <c r="B107" t="s">
+        <v>122</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D107" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>181</v>
+      </c>
+      <c r="B108" t="s">
+        <v>122</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D108" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="s">
+        <v>181</v>
+      </c>
+      <c r="B109" t="s">
+        <v>122</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D109" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2965,7 +3767,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -2976,28 +3778,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>150</v>
+      <c r="A1" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="D1" t="s">
-        <v>151</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
-        <v>152</v>
+      <c r="A2" s="5" t="s">
+        <v>195</v>
       </c>
       <c r="B2" t="s">
-        <v>153</v>
+        <v>196</v>
       </c>
       <c r="C2" t="s">
-        <v>154</v>
+        <v>197</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
@@ -3013,383 +3815,632 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="D2" sqref="D2:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
-    <col min="3" max="3" width="11.8888888888889" customWidth="1"/>
-    <col min="4" max="4" width="27.7777777777778" customWidth="1"/>
-    <col min="6" max="6" width="11.8888888888889" customWidth="1"/>
+    <col min="1" max="1" width="8.55555555555556" customWidth="1"/>
+    <col min="2" max="2" width="20.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="8.55555555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:6">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>91</v>
+        <v>198</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D4" t="s">
-        <v>129</v>
-      </c>
-      <c r="F4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>158</v>
-      </c>
-      <c r="C5" t="s">
-        <v>122</v>
-      </c>
-      <c r="D5" t="s">
-        <v>145</v>
-      </c>
-      <c r="F5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>158</v>
-      </c>
-      <c r="C6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D6" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>158</v>
-      </c>
-      <c r="C7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>158</v>
-      </c>
-      <c r="C8" t="s">
-        <v>122</v>
-      </c>
-      <c r="D8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>158</v>
-      </c>
-      <c r="C9" t="s">
-        <v>122</v>
-      </c>
-      <c r="D9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>158</v>
-      </c>
-      <c r="C10" t="s">
-        <v>121</v>
-      </c>
-      <c r="D10" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>158</v>
-      </c>
-      <c r="C11" t="s">
-        <v>121</v>
-      </c>
-      <c r="D11" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>158</v>
-      </c>
-      <c r="C12" t="s">
-        <v>121</v>
-      </c>
-      <c r="D12" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>158</v>
-      </c>
-      <c r="C13" t="s">
-        <v>121</v>
-      </c>
-      <c r="D13" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>158</v>
-      </c>
-      <c r="C14" t="s">
-        <v>120</v>
-      </c>
-      <c r="D14" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>158</v>
-      </c>
-      <c r="C15" t="s">
-        <v>120</v>
-      </c>
-      <c r="D15" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>158</v>
-      </c>
-      <c r="C16" t="s">
-        <v>120</v>
-      </c>
-      <c r="D16" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>158</v>
-      </c>
-      <c r="C17" t="s">
-        <v>120</v>
-      </c>
-      <c r="D17" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>158</v>
-      </c>
-      <c r="C18" t="s">
-        <v>120</v>
-      </c>
-      <c r="D18" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>158</v>
-      </c>
-      <c r="C19" t="s">
-        <v>120</v>
-      </c>
-      <c r="D19" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>158</v>
-      </c>
-      <c r="C20" t="s">
-        <v>120</v>
-      </c>
-      <c r="D20" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C21" t="s">
-        <v>119</v>
-      </c>
-      <c r="D21" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>159</v>
-      </c>
-      <c r="C22" t="s">
-        <v>119</v>
-      </c>
-      <c r="D22" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>159</v>
-      </c>
-      <c r="C23" t="s">
-        <v>119</v>
-      </c>
-      <c r="D23" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>159</v>
-      </c>
-      <c r="C24" t="s">
-        <v>119</v>
-      </c>
-      <c r="D24" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="25" spans="4:4">
-      <c r="D25" t="s">
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>160</v>
       </c>
     </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="F2:F25">
-    <sortCondition ref="F2:F25"/>
+  <autoFilter ref="A1:D58">
+    <extLst/>
+  </autoFilter>
+  <sortState ref="A2:B58">
+    <sortCondition ref="A2:A58"/>
+    <sortCondition ref="B2:B58"/>
   </sortState>
-  <conditionalFormatting sqref="D$1:D$1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="B$1:B$1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:B13">
+    <sortCondition ref="A2:A13"/>
+    <sortCondition ref="B2:B13"/>
+  </sortState>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>